--- a/biology/Botanique/Chêne_de_Saeul/Chêne_de_Saeul.xlsx
+++ b/biology/Botanique/Chêne_de_Saeul/Chêne_de_Saeul.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%AAne_de_Saeul</t>
+          <t>Chêne_de_Saeul</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le chêne remarquable de Saeul est un chêne rouvre (ou chêne sessile, Quercus petraea) situé au lieu-dit Hëlzent à Saeul, au carrefour des routes allant de Saeul à Reichlange et de Saeul à Calmus, respectivement. Classé monument national depuis 1974, il est le plus imposant des chênes du Luxembourg. 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%AAne_de_Saeul</t>
+          <t>Chêne_de_Saeul</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le tronc, qui est relativement court et penché, porte une couronne très développée, aux proportions équilibrées, ce qui tend à indiquer qu'elle a pu se développer librement pendant au moins plusieurs dizaines d'années, sans être gênée par d'autres arbres dans son voisinage.
 L'âge du chêne est estimé à environ 280 ans. Au début du XXe siècle, un marché se tenait à cet endroit, où se trouvaient alors sept autres chênes.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%AAne_de_Saeul</t>
+          <t>Chêne_de_Saeul</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La circonférence du tronc, mesurée à 1,30 m du sol, a augmenté de la façon suivante au cours du temps : 
 1907 : environ 4 m ;
@@ -554,7 +570,7 @@
 vers 2000 : 5,27 m ; taille : 26 m.
 Ces données font de cet arbre le troisième plus gros chêne du Luxembourg (derrière le chêne de Hersberg et celui de Canach-Bicherhaff).
 De 2000 à 2002, l'administration communale de Saeul a fait aménager au lieu-dit Hëlzent un parc public comprenant un étang artificiel de 200 m2, l'ancien lavoir restauré, ainsi que le chêne remarquable. Un chemin pour piétons relie le village de Saeul au parc.
-En 1974, le chêne de Saeul fut classé à l'Inventaire supplémentaire des monuments nationaux du Luxembourg. En 1978, la couronne de l'arbre fut consolidée[1].
+En 1974, le chêne de Saeul fut classé à l'Inventaire supplémentaire des monuments nationaux du Luxembourg. En 1978, la couronne de l'arbre fut consolidée.
 </t>
         </is>
       </c>
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ch%C3%AAne_de_Saeul</t>
+          <t>Chêne_de_Saeul</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,7 +599,9 @@
           <t>Photos</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Le chêne en hiver 2008.
